--- a/Task Board - Team D - Sprint 3 (3).xlsx
+++ b/Task Board - Team D - Sprint 3 (3).xlsx
@@ -279,51 +279,6 @@
     <t>database scripts were executed and then put up on the azure database sql server.</t>
   </si>
   <si>
-    <t xml:space="preserve">Deploy the WebApi project on Azure </t>
-  </si>
-  <si>
-    <t>Correction in MVC project and introduction to Azure and virtual machines.</t>
-  </si>
-  <si>
-    <t>creation of app service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creation of logic and queue using Logic app </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creation of virtual machine </t>
-  </si>
-  <si>
-    <t>Creation of storage account</t>
-  </si>
-  <si>
-    <t>creation of Active directory and learnt to monitor</t>
-  </si>
-  <si>
-    <t>Creation of function through azure function app</t>
-  </si>
-  <si>
-    <t>Using Function to do CRUD operations on SQL database</t>
-  </si>
-  <si>
-    <t>Creation of Web Cognitive Services</t>
-  </si>
-  <si>
-    <t>Demo for load Balancing and controlling traffic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Put up Database scripts on Azure Database SQL server </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Create HTML page using CSS and Bootstrap </t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Consuming WebApi through AJAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Create WebApi Controller in Azure </t>
-  </si>
-  <si>
     <t xml:space="preserve">As Azure is the new topic, It took time to learn the architecture. </t>
   </si>
   <si>
@@ -379,6 +334,51 @@
   </si>
   <si>
     <t>Creation of Function App was performed , it took a bit time as we were new to technology and it is chargeable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Create WebApi Controller in Azure  (04  to 06 nov 2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Create HTML page using CSS and Bootstrap ( 06 nov 2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Consuming WebApi through AJAX ( 12-13 nov 2019)</t>
+  </si>
+  <si>
+    <t>Put up Database scripts on Azure Database SQL server ( 12 nov 2019)</t>
+  </si>
+  <si>
+    <t>Deploy the WebApi project on Azure ( 14 Nov 2019)</t>
+  </si>
+  <si>
+    <t>Correction in MVC project and introduction to Azure and virtual machines.( 04 nov 2019)</t>
+  </si>
+  <si>
+    <t>creation of app service( 07 nov 2019)</t>
+  </si>
+  <si>
+    <t>creation of Active directory and learnt to monitor (08 nov 2019)</t>
+  </si>
+  <si>
+    <t>Creation of logic and queue using Logic app ( 11 nov 2019)</t>
+  </si>
+  <si>
+    <t>Creation of virtual machine ( 08 nov 2019)</t>
+  </si>
+  <si>
+    <t>Creation of function through azure function app ( 07 nov 2019)</t>
+  </si>
+  <si>
+    <t>Demo for load Balancing and controlling traffic ( 07 nov 2019)</t>
+  </si>
+  <si>
+    <t>Creation of storage account ( 07 nov 2019)</t>
+  </si>
+  <si>
+    <t>Using Function to do CRUD operations on SQL database ( 06 nov 2019)</t>
+  </si>
+  <si>
+    <t>Creation of Web Cognitive Services ( 06 nov 2019)</t>
   </si>
 </sst>
 </file>
@@ -2088,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="5" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -2282,14 +2282,14 @@
     </row>
     <row r="11" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
     </row>
     <row r="12" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B12" s="14">
         <v>1</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="13" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="14" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B14" s="14">
         <v>1</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="15" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B15" s="14">
         <v>1</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="16" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B16" s="14">
         <v>2</v>
@@ -2366,15 +2366,15 @@
         <v>2.5</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B17" s="14">
         <v>2</v>
@@ -2386,12 +2386,12 @@
         <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B18" s="14">
         <v>2</v>
@@ -2400,15 +2400,15 @@
         <v>2.5</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B19" s="14">
         <v>2</v>
@@ -2417,15 +2417,15 @@
         <v>2.5</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B20" s="14">
         <v>1</v>
@@ -2434,15 +2434,15 @@
         <v>1.5</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B21" s="14">
         <v>2</v>
@@ -2454,12 +2454,12 @@
         <v>66</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B22" s="14">
         <v>1</v>
@@ -2471,12 +2471,12 @@
         <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B23" s="14">
         <v>2</v>
@@ -2488,12 +2488,12 @@
         <v>66</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B24" s="14">
         <v>1.5</v>
@@ -2502,15 +2502,15 @@
         <v>2</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B25" s="14">
         <v>1</v>
@@ -2522,12 +2522,12 @@
         <v>66</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B26" s="14">
         <v>1</v>
@@ -2539,16 +2539,16 @@
         <v>66</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/Task Board - Team D - Sprint 3 (3).xlsx
+++ b/Task Board - Team D - Sprint 3 (3).xlsx
@@ -38,7 +38,7 @@
     <author>Sinha, Ritwik</author>
   </authors>
   <commentList>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="A23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
   <si>
     <t>Agile Task Board</t>
   </si>
@@ -270,18 +270,9 @@
     <t xml:space="preserve">                              On time</t>
   </si>
   <si>
-    <t>Created a  HTML page displaying records of all the orders or entities created.</t>
-  </si>
-  <si>
-    <t>Consumed WebApi through AJAX method To display Entities list.</t>
-  </si>
-  <si>
     <t>database scripts were executed and then put up on the azure database sql server.</t>
   </si>
   <si>
-    <t xml:space="preserve">As Azure is the new topic, It took time to learn the architecture. </t>
-  </si>
-  <si>
     <t>Inventory</t>
   </si>
   <si>
@@ -294,91 +285,85 @@
     <t xml:space="preserve">Sprint 7- Dotnet with cloud Batch                                                                                                                                                                                                                                                                                                                                                                             Sprint Date- 4th Nov, 2019 to 15th Nov,2019                                                                                                                                                                                                                                                                                                                                                   Topic- Deploying ASP project on Azure with two operations </t>
   </si>
   <si>
-    <t xml:space="preserve">                Time was taken to create a storage account and then process.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              As it was a new topic it took time to create the storage account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             As it was a new topic it took time to create the App service.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Time was utilized to create a resource and active directory.</t>
-  </si>
-  <si>
     <t>It was a total new and useful concept to deploy our application on azure and learnt about the advantages.</t>
   </si>
   <si>
-    <t>Correction in validation was done.</t>
-  </si>
-  <si>
-    <t>Creation of App service was performed , it took a bit time as we were new to technology and it is chargeable.</t>
-  </si>
-  <si>
-    <t>created active directory to observe monitoring of the application and server, then monitor the load.</t>
-  </si>
-  <si>
-    <t>Creation of Storage account was performed , it took a bit time as we were new to technology and it is chargeable.</t>
-  </si>
-  <si>
-    <t>Created virtual machine and and observed that it utilizes a lot of memory.</t>
-  </si>
-  <si>
-    <t>Crud operations were carried on the sql database and stored procedures.</t>
-  </si>
-  <si>
-    <t>Web cognitive services were created.</t>
-  </si>
-  <si>
-    <t>Since a lot users can work on a single server at a time , load balancer needs to be used.</t>
-  </si>
-  <si>
-    <t>Creation of Function App was performed , it took a bit time as we were new to technology and it is chargeable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Create WebApi Controller in Azure  (04  to 06 nov 2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Create HTML page using CSS and Bootstrap ( 06 nov 2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Consuming WebApi through AJAX ( 12-13 nov 2019)</t>
-  </si>
-  <si>
-    <t>Put up Database scripts on Azure Database SQL server ( 12 nov 2019)</t>
-  </si>
-  <si>
-    <t>Deploy the WebApi project on Azure ( 14 Nov 2019)</t>
-  </si>
-  <si>
-    <t>Correction in MVC project and introduction to Azure and virtual machines.( 04 nov 2019)</t>
-  </si>
-  <si>
-    <t>creation of app service( 07 nov 2019)</t>
-  </si>
-  <si>
-    <t>creation of Active directory and learnt to monitor (08 nov 2019)</t>
-  </si>
-  <si>
-    <t>Creation of logic and queue using Logic app ( 11 nov 2019)</t>
-  </si>
-  <si>
-    <t>Creation of virtual machine ( 08 nov 2019)</t>
-  </si>
-  <si>
-    <t>Creation of function through azure function app ( 07 nov 2019)</t>
-  </si>
-  <si>
-    <t>Demo for load Balancing and controlling traffic ( 07 nov 2019)</t>
-  </si>
-  <si>
-    <t>Creation of storage account ( 07 nov 2019)</t>
-  </si>
-  <si>
-    <t>Using Function to do CRUD operations on SQL database ( 06 nov 2019)</t>
-  </si>
-  <si>
-    <t>Creation of Web Cognitive Services ( 06 nov 2019)</t>
+    <t xml:space="preserve">          Create WebApi Controller ( Solution) in Azure  ( 16  nov 2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Consuming WebApi through MVC ( 21 nov 2019)</t>
+  </si>
+  <si>
+    <t>Put up Database scripts on Azure Database SQL server ( 16 nov 2019)</t>
+  </si>
+  <si>
+    <t>Deploy the MVC  project on Azure ( 21 Nov 2019)</t>
+  </si>
+  <si>
+    <t>Learning the Agile and Scrum model ( 18 nov 2019)</t>
+  </si>
+  <si>
+    <t>Creating Various PLP documents as URS, PRODUCT BACKLOG etc( 20 nov 2019)</t>
+  </si>
+  <si>
+    <t>Revision Of Azure Concepts ( 19 nov 2019)</t>
+  </si>
+  <si>
+    <t>Connect MVC project with Web Api(  20 nov 2019)</t>
+  </si>
+  <si>
+    <t>learning of  Dev-OPs( 20 nov 2019)</t>
+  </si>
+  <si>
+    <t>Analysis of PLP documents ( 19 nov 2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Create the MVC project with Model view Controller with validation( 18 nov 2019)</t>
+  </si>
+  <si>
+    <t>Sum - 21 hours</t>
+  </si>
+  <si>
+    <t>Sum - 22 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Azure is the difficult topic, It took time to learn the architecture. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             As it was a new topic it took time to learn Dev - ops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             On time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               On time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              As we needed to create 5 documents, so it took time.</t>
+  </si>
+  <si>
+    <t>Created a  MVC project Model view Controller with validation .</t>
+  </si>
+  <si>
+    <t>Consumed WebApi through MVC  method On all the CRUD operations.</t>
+  </si>
+  <si>
+    <t>Connection of web api and MVC was done and the project was running on local host.</t>
+  </si>
+  <si>
+    <t>Dev-ops were very essential for continuous integration.</t>
+  </si>
+  <si>
+    <t>PLP documents were Analysed and we went through the urs and other documents.</t>
+  </si>
+  <si>
+    <t>Azure Concepts were Revisied red we went through the urs red other Concepts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  learnt about the basics of agile and scrum model </t>
+  </si>
+  <si>
+    <t>Various documents were created Like urs etc.</t>
   </si>
 </sst>
 </file>
@@ -2086,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF38"/>
+  <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,7 +2213,7 @@
     </row>
     <row r="5" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -2282,14 +2267,14 @@
     </row>
     <row r="11" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
     </row>
     <row r="12" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B12" s="14">
         <v>1</v>
@@ -2306,7 +2291,7 @@
     </row>
     <row r="13" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
@@ -2318,12 +2303,12 @@
         <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B14" s="14">
         <v>1</v>
@@ -2335,12 +2320,12 @@
         <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B15" s="14">
         <v>1</v>
@@ -2352,12 +2337,12 @@
         <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B16" s="14">
         <v>2</v>
@@ -2366,15 +2351,15 @@
         <v>2.5</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B17" s="14">
         <v>2</v>
@@ -2386,12 +2371,12 @@
         <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B18" s="14">
         <v>2</v>
@@ -2400,159 +2385,117 @@
         <v>2.5</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B19" s="14">
         <v>2</v>
       </c>
       <c r="C19" s="14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B20" s="14">
         <v>1</v>
       </c>
       <c r="C20" s="14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B21" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B22" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="14">
-        <v>2</v>
-      </c>
-      <c r="C23" s="14">
-        <v>2</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="C24" s="14">
-        <v>2</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="14">
-        <v>1</v>
-      </c>
-      <c r="C25" s="14">
-        <v>1</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="14">
-        <v>1</v>
-      </c>
-      <c r="C26" s="14">
-        <v>1</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
       <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,10 +2508,10 @@
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -2582,21 +2525,17 @@
       <c r="A35" s="3"/>
       <c r="D35" s="26"/>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
       <c r="D37" s="26"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="D32:D37"/>
     <mergeCell ref="A5:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Task Board - Team D - Sprint 3 (3).xlsx
+++ b/Task Board - Team D - Sprint 3 (3).xlsx
@@ -282,9 +282,6 @@
     <t xml:space="preserve">               Sum- 26 hrs</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint 7- Dotnet with cloud Batch                                                                                                                                                                                                                                                                                                                                                                             Sprint Date- 4th Nov, 2019 to 15th Nov,2019                                                                                                                                                                                                                                                                                                                                                   Topic- Deploying ASP project on Azure with two operations </t>
-  </si>
-  <si>
     <t>It was a total new and useful concept to deploy our application on azure and learnt about the advantages.</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   </si>
   <si>
     <t>Various documents were created Like urs etc.</t>
+  </si>
+  <si>
+    <t>Sprint 8- Dotnet with cloud Batch                                                                                                                                                                                                                                                                                                                                                                             Sprint Duration- 15th Nov, 2019 to 22th Nov,2019                                                                                                                                                                                                                                                                                                                                                   Topic- Deploying MVC  project on Azure with CICD through Dev-ops</t>
   </si>
 </sst>
 </file>
@@ -2073,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="5" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="12" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="14">
         <v>1</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="13" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
@@ -2303,12 +2303,12 @@
         <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="14">
         <v>1</v>
@@ -2320,12 +2320,12 @@
         <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="14">
         <v>1</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="16" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="14">
         <v>2</v>
@@ -2351,15 +2351,15 @@
         <v>2.5</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="14">
         <v>2</v>
@@ -2371,12 +2371,12 @@
         <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="14">
         <v>2</v>
@@ -2385,15 +2385,15 @@
         <v>2.5</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="14">
         <v>2</v>
@@ -2402,15 +2402,15 @@
         <v>2</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="14">
         <v>1</v>
@@ -2419,15 +2419,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="14">
         <v>3</v>
@@ -2439,12 +2439,12 @@
         <v>66</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="14">
         <v>4</v>
@@ -2453,10 +2453,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2468,10 +2468,10 @@
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="D24" s="22"/>
     </row>
